--- a/070623_AOB_out/AOB_Stats.xlsx
+++ b/070623_AOB_out/AOB_Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC7294-5B8E-0247-80CF-7F96501D7766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D82E09-BFA2-7942-A29E-AA86D583D7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1500" windowWidth="24640" windowHeight="13360" activeTab="12" xr2:uid="{13475CC0-FCB7-2246-93FE-E50952904D75}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="5" activeTab="8" xr2:uid="{13475CC0-FCB7-2246-93FE-E50952904D75}"/>
   </bookViews>
   <sheets>
     <sheet name="AOB_Rich_Bulk" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="AOB_Simpson_Bulk" sheetId="5" r:id="rId5"/>
     <sheet name="AOB_InvSimp_Bulk" sheetId="6" r:id="rId6"/>
     <sheet name="AOB_InvSimp_Rhizo" sheetId="7" r:id="rId7"/>
-    <sheet name="AOB_PERMANOV_TypeInclud" sheetId="8" r:id="rId8"/>
-    <sheet name="AOB_PERMANOV_TypeInclu_jac" sheetId="9" r:id="rId9"/>
-    <sheet name="AOB_PERMANOV_wUF" sheetId="10" r:id="rId10"/>
-    <sheet name="AOB_PERMANOV_uwUF" sheetId="11" r:id="rId11"/>
+    <sheet name="PERMANOV_Bulk" sheetId="14" r:id="rId8"/>
+    <sheet name="PERMANOV_Rhizo" sheetId="15" r:id="rId9"/>
+    <sheet name="AOB_PERMANOV_Bray" sheetId="8" r:id="rId10"/>
+    <sheet name="AOB_PERMANOV_Jac" sheetId="9" r:id="rId11"/>
     <sheet name="AOB_PERMANOV_wUF_rare" sheetId="12" r:id="rId12"/>
     <sheet name="AOB_PERMANOV_uwUF_rare" sheetId="13" r:id="rId13"/>
   </sheets>
@@ -35,13 +35,19 @@
     <definedName name="_200623_AOB_Shanon_Bulk" localSheetId="2">AOB_Shanon_Bulk!$A$1:$G$9</definedName>
     <definedName name="_200623_AOB_Shanon_Stat_Rhizo" localSheetId="3">AOB_Shanon_Rhizo!$A$1:$G$9</definedName>
     <definedName name="_200623_AOB_Simp_Stat_Bulk" localSheetId="4">AOB_Simpson_Bulk!$A$1:$G$9</definedName>
-    <definedName name="_210623_AOB_PERMANOV_Typeinclu" localSheetId="7">AOB_PERMANOV_TypeInclud!$A$1:$G$19</definedName>
-    <definedName name="_210623_AOB_PERMANOV_Typeinclu_7" localSheetId="7">AOB_PERMANOV_TypeInclud!$J$1:$P$19</definedName>
-    <definedName name="_210623_AOB_PERMANOV_Typeinclu_jac" localSheetId="8">AOB_PERMANOV_TypeInclu_jac!$A$1:$G$19</definedName>
-    <definedName name="_210623_AOB_PERMANOV_wUF" localSheetId="9">AOB_PERMANOV_wUF!$A$1:$G$19</definedName>
-    <definedName name="_220623_AOB_PERMANOV_uwUF" localSheetId="10">AOB_PERMANOV_uwUF!$A$1:$G$19</definedName>
+    <definedName name="_210623_AOB_PERMANOV_Typeinclu" localSheetId="9">AOB_PERMANOV_Bray!$A$1:$G$19</definedName>
+    <definedName name="_210623_AOB_PERMANOV_Typeinclu_7" localSheetId="9">AOB_PERMANOV_Bray!$J$1:$P$19</definedName>
+    <definedName name="_210623_AOB_PERMANOV_Typeinclu_jac" localSheetId="10">AOB_PERMANOV_Jac!$A$1:$G$19</definedName>
     <definedName name="_250623_AOB_PERMANOV_uwUF_rarefied" localSheetId="12">AOB_PERMANOV_uwUF_rare!$A$1:$G$19</definedName>
     <definedName name="_250623_AOB_PERMANOV_wUF_rarefied" localSheetId="11">AOB_PERMANOV_wUF_rare!$A$1:$G$19</definedName>
+    <definedName name="_300623_AOB_Permanov_Bray_Bulk" localSheetId="7">PERMANOV_Bulk!$A$2:$G$12</definedName>
+    <definedName name="_300623_AOB_Permanov_Bray_Rhizo" localSheetId="8">PERMANOV_Rhizo!$A$2:$G$12</definedName>
+    <definedName name="_300623_AOB_Permanov_Jac_Bulk" localSheetId="7">PERMANOV_Bulk!$A$15:$G$25</definedName>
+    <definedName name="_300623_AOB_Permanov_Jac_Rhizo" localSheetId="8">PERMANOV_Rhizo!$A$15:$G$25</definedName>
+    <definedName name="_300623_AOB_Permanov_uwUF_Bulk" localSheetId="7">PERMANOV_Bulk!$A$41:$H$51</definedName>
+    <definedName name="_300623_AOB_Permanov_uwUF_Rhizo" localSheetId="8">PERMANOV_Rhizo!$A$41:$H$51</definedName>
+    <definedName name="_300623_AOB_Permanov_wUF_Bulk" localSheetId="7">PERMANOV_Bulk!$A$28:$G$38</definedName>
+    <definedName name="_300623_AOB_Permanov_wuF_Rhizo" localSheetId="8">PERMANOV_Rhizo!$A$28:$G$38</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -66,7 +72,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{548926E8-F29E-E544-ACC1-D4EAF2EE0A6A}" name="190623_AOB_Rich_Stat_Bulk" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/190623_AOB_Rich_Stat_Bulk.txt" delimited="0">
+    <textPr sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/190623_AOB_Rich_Stat_Bulk.txt" delimited="0">
       <textFields count="9">
         <textField/>
         <textField position="20"/>
@@ -81,7 +87,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{38B558DB-088A-2943-BE81-8744D03F9BCD}" name="190623_AOB_Rich_Stat_Rhiz" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/190623_AOB_Rich_Stat_Rhiz.txt" delimited="0">
+    <textPr sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/190623_AOB_Rich_Stat_Rhiz.txt" delimited="0">
       <textFields count="8">
         <textField/>
         <textField position="20"/>
@@ -95,7 +101,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{CCA84E92-57B5-F342-8AAA-B2D6CA556590}" name="200623_AOB_InvSimp_Stat_Bulk" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/200623_AOB_InvSimp_Stat_Bulk.txt" delimited="0">
+    <textPr sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/200623_AOB_InvSimp_Stat_Bulk.txt" delimited="0">
       <textFields count="8">
         <textField/>
         <textField position="20"/>
@@ -109,7 +115,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{6B29A8D0-C8FA-7C43-83BB-2EE7465DC05B}" name="200623_AOB_InvSimp_Stat_Rhizo" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/200623_AOB_InvSimp_Stat_Rhizo.txt" delimited="0">
+    <textPr sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/200623_AOB_InvSimp_Stat_Rhizo.txt" delimited="0">
       <textFields count="8">
         <textField/>
         <textField position="20"/>
@@ -123,7 +129,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{3C1601DC-D1EF-914C-95C6-A56018CFF904}" name="200623_AOB_Shanon_Bulk" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/200623_AOB_Shanon_Bulk.txt" delimited="0">
+    <textPr sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/200623_AOB_Shanon_Bulk.txt" delimited="0">
       <textFields count="9">
         <textField/>
         <textField position="20"/>
@@ -138,7 +144,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{91606610-3274-8D41-AE69-FCCF7E3F6988}" name="200623_AOB_Shanon_Stat_Rhizo" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/200623_AOB_Shanon_Stat_Rhizo.txt" delimited="0">
+    <textPr sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/200623_AOB_Shanon_Stat_Rhizo.txt" delimited="0">
       <textFields count="9">
         <textField/>
         <textField position="20"/>
@@ -153,7 +159,7 @@
     </textPr>
   </connection>
   <connection id="7" xr16:uid="{80503736-7FB7-2D4A-BFCB-DE98B9108165}" name="200623_AOB_Simp_Stat_Bulk" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/200623_AOB_Simp_Stat_Bulk.txt" delimited="0">
+    <textPr sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/200623_AOB_Simp_Stat_Bulk.txt" delimited="0">
       <textFields count="8">
         <textField/>
         <textField position="20"/>
@@ -167,7 +173,7 @@
     </textPr>
   </connection>
   <connection id="8" xr16:uid="{B6A44645-EC2F-FA43-8F47-843DBF769163}" name="210623_AOB_PERMANOV_Typeinclu" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/210623_AOB_PERMANOV_Typeinclu.txt" delimited="0">
+    <textPr sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/210623_AOB_PERMANOV_Typeinclu.txt" delimited="0">
       <textFields count="7">
         <textField/>
         <textField position="30"/>
@@ -180,7 +186,7 @@
     </textPr>
   </connection>
   <connection id="9" xr16:uid="{BFE1ABB5-4DF9-6C4D-90DD-35F65EB6D317}" name="210623_AOB_PERMANOV_Typeinclu_jac" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/210623_AOB_PERMANOV_Typeinclu_jac.txt" delimited="0">
+    <textPr sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/210623_AOB_PERMANOV_Typeinclu_jac.txt" delimited="0">
       <textFields count="7">
         <textField/>
         <textField position="30"/>
@@ -193,7 +199,7 @@
     </textPr>
   </connection>
   <connection id="10" xr16:uid="{543CD9F7-2E6E-164F-A4E6-F295D477E43C}" name="210623_AOB_PERMANOV_Typeinclu1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/210623_AOB_PERMANOV_Typeinclu.txt" delimited="0">
+    <textPr sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/210623_AOB_PERMANOV_Typeinclu.txt" delimited="0">
       <textFields count="7">
         <textField/>
         <textField position="30"/>
@@ -205,8 +211,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" xr16:uid="{E34510D2-EAA7-3B49-8DCA-4CD0AF7BB47A}" name="210623_AOB_PERMANOV_wUF" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/210623_AOB_PERMANOV_wUF.txt" delimited="0">
+  <connection id="11" xr16:uid="{F3B0CFD6-3299-1845-B3FD-0D47BCDF376C}" name="250623_AOB_PERMANOV_uwUF_rarefied" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/250623_AOB_PERMANOV_uwUF_rarefied.txt" delimited="0">
       <textFields count="7">
         <textField/>
         <textField position="30"/>
@@ -218,8 +224,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" xr16:uid="{B5099BF1-886D-D647-8098-2AB1B9A62A88}" name="220623_AOB_PERMANOV_uwUF" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/220623_AOB_PERMANOV_uwUF.txt" delimited="0">
+  <connection id="12" xr16:uid="{4F5C3194-9D81-B849-8F51-CBBB31B89156}" name="250623_AOB_PERMANOV_wUF_rarefied" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/250623_AOB_PERMANOV_wUF_rarefied.txt" delimited="0">
       <textFields count="7">
         <textField/>
         <textField position="30"/>
@@ -231,29 +237,109 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" xr16:uid="{F3B0CFD6-3299-1845-B3FD-0D47BCDF376C}" name="250623_AOB_PERMANOV_uwUF_rarefied" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/250623_AOB_PERMANOV_uwUF_rarefied.txt" delimited="0">
+  <connection id="13" xr16:uid="{62F080AA-FFC0-D747-86D3-003086042267}" name="300623_AOB_Permanov_Bray_Bulk" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/300623_AOB_Permanov_Bray_Bulk.txt" delimited="0">
       <textFields count="7">
         <textField/>
-        <textField position="30"/>
-        <textField position="34"/>
-        <textField position="43"/>
-        <textField position="51"/>
-        <textField position="59"/>
-        <textField position="66"/>
+        <textField position="25"/>
+        <textField position="29"/>
+        <textField position="38"/>
+        <textField position="46"/>
+        <textField position="54"/>
+        <textField position="61"/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" xr16:uid="{4F5C3194-9D81-B849-8F51-CBBB31B89156}" name="250623_AOB_PERMANOV_wUF_rarefied" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/250623_AOB_PERMANOV_wUF_rarefied.txt" delimited="0">
+  <connection id="14" xr16:uid="{8CB4C4D4-D28C-B843-8FC0-33E35D10563A}" name="300623_AOB_Permanov_Bray_Rhizo" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/300623_AOB_Permanov_Bray_Rhizo.txt" delimited="0">
       <textFields count="7">
         <textField/>
-        <textField position="30"/>
-        <textField position="34"/>
-        <textField position="43"/>
-        <textField position="51"/>
+        <textField position="25"/>
+        <textField position="28"/>
+        <textField position="37"/>
+        <textField position="45"/>
+        <textField position="53"/>
+        <textField position="60"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" xr16:uid="{94F6C850-5FAD-3145-923B-29D6C15D76C9}" name="300623_AOB_Permanov_Jac_Bulk" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/300623_AOB_Permanov_Jac_Bulk.txt" delimited="0">
+      <textFields count="7">
+        <textField/>
+        <textField position="25"/>
+        <textField position="29"/>
+        <textField position="38"/>
+        <textField position="46"/>
+        <textField position="54"/>
+        <textField position="61"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="16" xr16:uid="{7A26AF43-68BC-0643-8B0E-9F679AF8E999}" name="300623_AOB_Permanov_Jac_Rhizo" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/300623_AOB_Permanov_Jac_Rhizo.txt" delimited="0">
+      <textFields count="7">
+        <textField/>
+        <textField position="25"/>
+        <textField position="28"/>
+        <textField position="37"/>
+        <textField position="45"/>
+        <textField position="52"/>
         <textField position="59"/>
-        <textField position="66"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="17" xr16:uid="{8EE67B07-297B-AA4B-ACD4-D7451DCA09C2}" name="300623_AOB_Permanov_uwUF_Bulk" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/300623_AOB_Permanov_uwUF_Bulk.txt" delimited="0">
+      <textFields count="8">
+        <textField/>
+        <textField position="25"/>
+        <textField position="29"/>
+        <textField position="38"/>
+        <textField position="46"/>
+        <textField position="54"/>
+        <textField position="61"/>
+        <textField position="63"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="18" xr16:uid="{B9A678E2-8A96-3645-A480-7721DF80B12B}" name="300623_AOB_Permanov_uwUF_Rhizo" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/300623_AOB_Permanov_uwUF_Rhizo.txt" delimited="0">
+      <textFields count="8">
+        <textField/>
+        <textField position="25"/>
+        <textField position="28"/>
+        <textField position="37"/>
+        <textField position="45"/>
+        <textField position="52"/>
+        <textField position="59"/>
+        <textField position="61"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="19" xr16:uid="{0F7C1E01-09A2-F146-99C1-0ED8A047CD79}" name="300623_AOB_Permanov_wUF_Bulk" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/300623_AOB_Permanov_wUF_Bulk.txt" delimited="0">
+      <textFields count="7">
+        <textField/>
+        <textField position="25"/>
+        <textField position="29"/>
+        <textField position="38"/>
+        <textField position="46"/>
+        <textField position="54"/>
+        <textField position="61"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="20" xr16:uid="{27CB55DB-E6F5-B942-8ED2-CC7B77F7AE59}" name="300623_AOB_Permanov_wuF_Rhizo" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/arifinabintarti/Documents/France/microservices/070623_AOB_out/300623_AOB_Permanov_wuF_Rhizo.txt" delimited="0">
+      <textFields count="7">
+        <textField/>
+        <textField position="25"/>
+        <textField position="28"/>
+        <textField position="37"/>
+        <textField position="45"/>
+        <textField position="53"/>
+        <textField position="60"/>
       </textFields>
     </textPr>
   </connection>
@@ -261,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="58">
   <si>
     <t>Sum Sq</t>
   </si>
@@ -392,13 +478,7 @@
     <t>adonis2(formula = aob.asv.min_dist ~ Irrigation * Treatment * Date * Type, data = aob.min.meta, permutations = 999, method = "jaccard", strata = NULL)</t>
   </si>
   <si>
-    <t>adonis2(formula = aob.wUF_dist ~ Irrigation * Treatment * Date * Type, data = aob.min.meta, permutations = 999, strata = NULL)</t>
-  </si>
-  <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>adonis2(formula = aob.uwUF_dist ~ Irrigation * Treatment * Date * Type, data = aob.min.meta, permutations = 999, strata = NULL)</t>
   </si>
   <si>
     <t>adonis2(formula = aob.wUF.rare~Irrigation * Treatment * Date * Type, data = aob.min.meta, permutations = 999, strata = NULL)</t>
@@ -406,13 +486,57 @@
   <si>
     <t>adonis2(formula = aob.uwUF.rar~Irrigation * Treatment * Date * Type, data = aob.min.meta, permutations = 999, strata = NULL)</t>
   </si>
+  <si>
+    <t>adonis2(formula = aob.bulk_dist_bc ~ Irrigation * Treatment * Date, data = aob.min.meta.bulk, permutations = 999, method = "bray", strata = NULL)</t>
+  </si>
+  <si>
+    <t>BRAY -CURTIS</t>
+  </si>
+  <si>
+    <t>adonis2(formula = aob.rh_dist_bc ~ Irrigation * Treatment * Date, data = aob.min.meta.rh, permutations = 999, method = "bray", strata = NULL)</t>
+  </si>
+  <si>
+    <t>JACCARD</t>
+  </si>
+  <si>
+    <t>adonis2(formula = aob.bulk_dist_jac ~ Irrigation * Treatment * Date, data = aob.min.meta.bulk, permutations = 999, method = "jaccard", strata = NULL)</t>
+  </si>
+  <si>
+    <t>adonis2(formula = aob.rh_dist_jac ~ Irrigation * Treatment * Date, data = aob.min.meta.rh, permutations = 999, method = "jaccard", strata = NULL)</t>
+  </si>
+  <si>
+    <t>WEIGHTED UNIFRAC</t>
+  </si>
+  <si>
+    <t>adonis2(formula = aob.bulk_dist_wUF ~ Irrigation * Treatment * Date, data = aob.min.meta.bulk, permutations = 999, strata = NULL)</t>
+  </si>
+  <si>
+    <t>adonis2(formula = aob.rh_dist_wUF ~ Irrigation * Treatment * Date, data = aob.min.meta.rh, permutations = 999, strata = NULL)</t>
+  </si>
+  <si>
+    <t>UNWEIGHTED UNIFRAC</t>
+  </si>
+  <si>
+    <t>adonis2(formula = aob.bulk_dist_uwUF ~ Irrigation * Treatment * Date, data = aob.min.meta.bulk, permutations = 999, strata = NULL)</t>
+  </si>
+  <si>
+    <t>adonis2(formula = aob.rh_dist_uwUF ~ Irrigation * Treatment * Date, data = aob.min.meta.rh, permutations = 999, strata = NULL)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -440,12 +564,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,10 +577,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,27 +616,51 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="300623_AOB_Permanov_Jac_Bulk" connectionId="15" xr16:uid="{21607469-C6D1-BA44-B3D2-90A7CE060925}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="300623_AOB_Permanov_Bray_Bulk" connectionId="13" xr16:uid="{26A44A50-1FA7-B543-B143-6C2A8E18446E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="300623_AOB_Permanov_uwUF_Rhizo" connectionId="18" xr16:uid="{DEABD6F1-F83F-A947-AB07-50A72EFE66D8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="300623_AOB_Permanov_wuF_Rhizo" connectionId="20" xr16:uid="{2EB13A5F-D91C-4A4F-8EAA-7EAD589150D7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="300623_AOB_Permanov_Jac_Rhizo" connectionId="16" xr16:uid="{1D741E60-05A4-C446-9149-5FD3DF79ECB3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="300623_AOB_Permanov_Bray_Rhizo" connectionId="14" xr16:uid="{138A5723-61F8-0347-8158-3CB5588ADA21}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="_210623_AOB_PERMANOV_Typeinclu_7" connectionId="10" xr16:uid="{3D95AAF7-4641-6A48-8222-894D49793EA3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="210623_AOB_PERMANOV_Typeinclu" connectionId="8" xr16:uid="{E549E928-9A85-3248-8239-FFA3DEF5F3AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="210623_AOB_PERMANOV_Typeinclu_jac" connectionId="9" xr16:uid="{AE379F8F-16BC-6C43-ABC1-9859C15E9563}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="210623_AOB_PERMANOV_wUF" connectionId="11" xr16:uid="{1550B243-78CB-DE40-81EF-C28B9D4FA711}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="220623_AOB_PERMANOV_uwUF" connectionId="12" xr16:uid="{1535E5DA-BED9-DA48-8545-0F9F476D9228}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="250623_AOB_PERMANOV_wUF_rarefied" connectionId="14" xr16:uid="{FF7D75F0-A4BB-FF40-BD79-41BF3247CD81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="250623_AOB_PERMANOV_uwUF_rarefied" connectionId="13" xr16:uid="{D636DE43-527A-8040-82D2-28A71AC10690}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="250623_AOB_PERMANOV_wUF_rarefied" connectionId="12" xr16:uid="{FF7D75F0-A4BB-FF40-BD79-41BF3247CD81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="190623_AOB_Rich_Stat_Rhiz" connectionId="2" xr16:uid="{D6BCF4B2-561F-DC46-A3FB-7B95C53BEBB3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="250623_AOB_PERMANOV_uwUF_rarefied" connectionId="11" xr16:uid="{D636DE43-527A-8040-82D2-28A71AC10690}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,11 +684,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="_210623_AOB_PERMANOV_Typeinclu_7" connectionId="10" xr16:uid="{3D95AAF7-4641-6A48-8222-894D49793EA3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="300623_AOB_Permanov_uwUF_Bulk" connectionId="17" xr16:uid="{C5F2D816-1044-BA4A-B47E-D27A55055BF5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="210623_AOB_PERMANOV_Typeinclu" connectionId="8" xr16:uid="{E549E928-9A85-3248-8239-FFA3DEF5F3AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="300623_AOB_Permanov_wUF_Bulk" connectionId="19" xr16:uid="{36D40CAF-2C26-8C44-89AD-38B0FA4A43C2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -849,15 +1006,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -898,7 +1055,7 @@
       <c r="F3">
         <v>0.1244</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.72842180000000001</v>
       </c>
     </row>
@@ -921,7 +1078,7 @@
       <c r="F4">
         <v>18.130099999999999</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -944,7 +1101,7 @@
       <c r="F5">
         <v>6.7046999999999999</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -967,7 +1124,7 @@
       <c r="F6">
         <v>0.20749999999999999</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.81454499999999996</v>
       </c>
     </row>
@@ -990,7 +1147,7 @@
       <c r="F7">
         <v>0.65090000000000003</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.62809210000000004</v>
       </c>
     </row>
@@ -1013,7 +1170,7 @@
       <c r="F8">
         <v>0.78420000000000001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.61798379999999997</v>
       </c>
     </row>
@@ -1036,7 +1193,7 @@
       <c r="F9">
         <v>0.50700000000000001</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.84727149999999996</v>
       </c>
     </row>
@@ -1049,34 +1206,41 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CBEF1E-78EF-D84C-A4F2-CF316EA7268E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C758DF-A5BC-E74A-9E7E-992ABCA3F5BC}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A2" sqref="A2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="70.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -1103,16 +1267,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9.6299999999999997E-3</v>
+        <v>0.248</v>
       </c>
       <c r="D3">
-        <v>8.9700000000000005E-3</v>
+        <v>6.5599999999999999E-3</v>
       </c>
       <c r="E3">
-        <v>2.7250999999999999</v>
+        <v>1.5322</v>
       </c>
       <c r="F3">
-        <v>5.8999999999999997E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -1126,13 +1290,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.38578000000000001</v>
+        <v>8.7750000000000004</v>
       </c>
       <c r="D4">
-        <v>0.35935</v>
+        <v>0.23222000000000001</v>
       </c>
       <c r="E4">
-        <v>54.5901</v>
+        <v>27.125900000000001</v>
       </c>
       <c r="F4">
         <v>1E-3</v>
@@ -1149,19 +1313,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3.5729999999999998E-2</v>
+        <v>0.67</v>
       </c>
       <c r="D5">
-        <v>3.3279999999999997E-2</v>
+        <v>1.7729999999999999E-2</v>
       </c>
       <c r="E5">
-        <v>2.528</v>
+        <v>1.0357000000000001</v>
       </c>
       <c r="F5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1172,16 +1333,19 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>4.0099999999999997E-3</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="D6">
-        <v>3.7299999999999998E-3</v>
+        <v>7.0699999999999999E-3</v>
       </c>
       <c r="E6">
-        <v>1.1344000000000001</v>
+        <v>1.6523000000000001</v>
       </c>
       <c r="F6">
-        <v>0.309</v>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1192,16 +1356,16 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>1.4970000000000001E-2</v>
+        <v>0.47</v>
       </c>
       <c r="D7">
-        <v>1.3939999999999999E-2</v>
+        <v>1.243E-2</v>
       </c>
       <c r="E7">
-        <v>2.1177000000000001</v>
+        <v>1.4519</v>
       </c>
       <c r="F7">
-        <v>6.0999999999999999E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -1215,16 +1379,16 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>6.96E-3</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D8">
-        <v>6.4799999999999996E-3</v>
+        <v>1.353E-2</v>
       </c>
       <c r="E8">
-        <v>0.49209999999999998</v>
+        <v>0.79020000000000001</v>
       </c>
       <c r="F8">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1235,16 +1399,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>2.6040000000000001E-2</v>
+        <v>0.92</v>
       </c>
       <c r="D9">
-        <v>2.426E-2</v>
+        <v>2.435E-2</v>
       </c>
       <c r="E9">
-        <v>0.92120000000000002</v>
+        <v>0.71120000000000005</v>
       </c>
       <c r="F9">
-        <v>0.55900000000000005</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1255,16 +1419,16 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>5.45E-3</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="D10">
-        <v>5.0699999999999999E-3</v>
+        <v>3.6099999999999999E-3</v>
       </c>
       <c r="E10">
-        <v>1.5409999999999999</v>
+        <v>0.84409999999999996</v>
       </c>
       <c r="F10">
-        <v>0.20899999999999999</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1275,16 +1439,16 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>9.7300000000000008E-3</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="D11">
-        <v>9.0600000000000003E-3</v>
+        <v>6.3299999999999997E-3</v>
       </c>
       <c r="E11">
-        <v>1.377</v>
+        <v>0.7399</v>
       </c>
       <c r="F11">
-        <v>0.221</v>
+        <v>0.81499999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1295,19 +1459,16 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1.337E-2</v>
+        <v>0.31</v>
       </c>
       <c r="D12">
-        <v>1.2449999999999999E-2</v>
+        <v>8.2100000000000003E-3</v>
       </c>
       <c r="E12">
-        <v>1.8916999999999999</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="F12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1318,16 +1479,16 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>1.567E-2</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="D13">
-        <v>1.46E-2</v>
+        <v>2.036E-2</v>
       </c>
       <c r="E13">
-        <v>0.5544</v>
+        <v>0.59460000000000002</v>
       </c>
       <c r="F13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1338,16 +1499,16 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>2.9499999999999999E-3</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="D14">
-        <v>2.7499999999999998E-3</v>
+        <v>6.13E-3</v>
       </c>
       <c r="E14">
-        <v>0.41810000000000003</v>
+        <v>0.71589999999999998</v>
       </c>
       <c r="F14">
-        <v>0.876</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1358,16 +1519,16 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>5.2700000000000004E-3</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="D15">
-        <v>4.9100000000000003E-3</v>
+        <v>5.3600000000000002E-3</v>
       </c>
       <c r="E15">
-        <v>0.74609999999999999</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="F15">
-        <v>0.58499999999999996</v>
+        <v>0.95799999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1378,16 +1539,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>1.3679999999999999E-2</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="D16">
-        <v>1.2749999999999999E-2</v>
+        <v>1.081E-2</v>
       </c>
       <c r="E16">
-        <v>0.96819999999999995</v>
+        <v>0.63129999999999997</v>
       </c>
       <c r="F16">
-        <v>0.44700000000000001</v>
+        <v>0.98899999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1398,16 +1559,16 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>1.5520000000000001E-2</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D17">
-        <v>1.4449999999999999E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E17">
-        <v>1.0978000000000001</v>
+        <v>0.51959999999999995</v>
       </c>
       <c r="F17">
-        <v>0.313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1418,10 +1579,10 @@
         <v>144</v>
       </c>
       <c r="C18">
-        <v>0.50882000000000005</v>
+        <v>23.292000000000002</v>
       </c>
       <c r="D18">
-        <v>0.47394999999999998</v>
+        <v>0.61638999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1432,7 +1593,7 @@
         <v>191</v>
       </c>
       <c r="C19">
-        <v>1.0735699999999999</v>
+        <v>37.787999999999997</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1447,34 +1608,32 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99982304-9CE7-2342-A4B1-382389B847BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C77292F-CC68-764B-B431-35FC4AE79147}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="4" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -1501,16 +1660,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9.4299999999999995E-2</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="D3">
-        <v>5.9800000000000001E-3</v>
+        <v>5.4799999999999996E-3</v>
       </c>
       <c r="E3">
-        <v>1.4410000000000001</v>
+        <v>1.196</v>
       </c>
       <c r="F3">
-        <v>0.14899999999999999</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1521,13 +1680,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.5011000000000001</v>
+        <v>8.7579999999999991</v>
       </c>
       <c r="D4">
-        <v>0.22189999999999999</v>
+        <v>0.14951999999999999</v>
       </c>
       <c r="E4">
-        <v>26.757999999999999</v>
+        <v>16.322500000000002</v>
       </c>
       <c r="F4">
         <v>1E-3</v>
@@ -1544,16 +1703,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.30719999999999997</v>
+        <v>1.181</v>
       </c>
       <c r="D5">
-        <v>1.9470000000000001E-2</v>
+        <v>2.0160000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>1.1739999999999999</v>
+        <v>1.1003000000000001</v>
       </c>
       <c r="F5">
-        <v>0.215</v>
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1564,19 +1723,19 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.26840000000000003</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D6">
-        <v>1.7010000000000001E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>4.1031000000000004</v>
+        <v>2.2932000000000001</v>
       </c>
       <c r="F6">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1587,16 +1746,16 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0.15459999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D7">
-        <v>9.7999999999999997E-3</v>
+        <v>9.5499999999999995E-3</v>
       </c>
       <c r="E7">
-        <v>1.1818</v>
+        <v>1.0428999999999999</v>
       </c>
       <c r="F7">
-        <v>0.24299999999999999</v>
+        <v>0.34799999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1607,16 +1766,16 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.1875</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="D8">
-        <v>1.188E-2</v>
+        <v>1.719E-2</v>
       </c>
       <c r="E8">
-        <v>0.71650000000000003</v>
+        <v>0.93820000000000003</v>
       </c>
       <c r="F8">
-        <v>0.91500000000000004</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1627,16 +1786,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.44719999999999999</v>
+        <v>1.9610000000000001</v>
       </c>
       <c r="D9">
-        <v>2.8340000000000001E-2</v>
+        <v>3.3480000000000003E-2</v>
       </c>
       <c r="E9">
-        <v>0.85440000000000005</v>
+        <v>0.91359999999999997</v>
       </c>
       <c r="F9">
-        <v>0.81499999999999995</v>
+        <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1647,16 +1806,16 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3.6499999999999998E-2</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="D10">
-        <v>2.31E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="E10">
-        <v>0.55730000000000002</v>
+        <v>0.8518</v>
       </c>
       <c r="F10">
-        <v>0.877</v>
+        <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1667,16 +1826,16 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>0.1216</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D11">
-        <v>7.7099999999999998E-3</v>
+        <v>9.6500000000000006E-3</v>
       </c>
       <c r="E11">
-        <v>0.92920000000000003</v>
+        <v>1.0531999999999999</v>
       </c>
       <c r="F11">
-        <v>0.51700000000000002</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1687,19 +1846,16 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0.2321</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D12">
-        <v>1.4710000000000001E-2</v>
+        <v>9.4500000000000001E-3</v>
       </c>
       <c r="E12">
-        <v>1.7736000000000001</v>
+        <v>1.0313000000000001</v>
       </c>
       <c r="F12">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1710,16 +1866,16 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>0.373</v>
+        <v>1.607</v>
       </c>
       <c r="D13">
-        <v>2.3640000000000001E-2</v>
+        <v>2.7439999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>0.7127</v>
+        <v>0.74880000000000002</v>
       </c>
       <c r="F13">
-        <v>0.97699999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1730,16 +1886,16 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>5.1400000000000001E-2</v>
+        <v>0.442</v>
       </c>
       <c r="D14">
-        <v>3.2599999999999999E-3</v>
+        <v>7.5500000000000003E-3</v>
       </c>
       <c r="E14">
-        <v>0.3931</v>
+        <v>0.82389999999999997</v>
       </c>
       <c r="F14">
-        <v>0.996</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1750,16 +1906,16 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>8.2000000000000003E-2</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D15">
-        <v>5.1999999999999998E-3</v>
+        <v>6.5599999999999999E-3</v>
       </c>
       <c r="E15">
-        <v>0.62680000000000002</v>
+        <v>0.71609999999999996</v>
       </c>
       <c r="F15">
-        <v>0.90600000000000003</v>
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1770,16 +1926,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.31869999999999998</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="D16">
-        <v>2.0199999999999999E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E16">
-        <v>1.218</v>
+        <v>0.85160000000000002</v>
       </c>
       <c r="F16">
-        <v>0.16300000000000001</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1790,16 +1946,16 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.18129999999999999</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D17">
-        <v>1.149E-2</v>
+        <v>1.4420000000000001E-2</v>
       </c>
       <c r="E17">
-        <v>0.69269999999999998</v>
+        <v>0.78710000000000002</v>
       </c>
       <c r="F17">
-        <v>0.94199999999999995</v>
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1810,10 +1966,10 @@
         <v>144</v>
       </c>
       <c r="C18">
-        <v>9.4206000000000003</v>
+        <v>38.634</v>
       </c>
       <c r="D18">
-        <v>0.59709000000000001</v>
+        <v>0.65954999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1824,16 +1980,13 @@
         <v>191</v>
       </c>
       <c r="C19">
-        <v>15.7774</v>
+        <v>58.575000000000003</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1843,30 +1996,29 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="I20" sqref="I13:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="4" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -1902,7 +2054,10 @@
         <v>2.1892999999999998</v>
       </c>
       <c r="F3">
-        <v>0.10100000000000001</v>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1945,7 +2100,7 @@
         <v>1.5632999999999999</v>
       </c>
       <c r="F5">
-        <v>0.107</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1965,7 +2120,7 @@
         <v>2.6625000000000001</v>
       </c>
       <c r="F6">
-        <v>7.0000000000000007E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -1988,7 +2143,7 @@
         <v>1.6252</v>
       </c>
       <c r="F7">
-        <v>0.153</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2008,7 +2163,7 @@
         <v>0.77010000000000001</v>
       </c>
       <c r="F8">
-        <v>0.64400000000000002</v>
+        <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2028,7 +2183,7 @@
         <v>0.75019999999999998</v>
       </c>
       <c r="F9">
-        <v>0.77100000000000002</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2048,7 +2203,7 @@
         <v>1.2156</v>
       </c>
       <c r="F10">
-        <v>0.27800000000000002</v>
+        <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2068,7 +2223,7 @@
         <v>1.7413000000000001</v>
       </c>
       <c r="F11">
-        <v>0.121</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2088,10 +2243,7 @@
         <v>1.9225000000000001</v>
       </c>
       <c r="F12">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2111,7 +2263,7 @@
         <v>0.52439999999999998</v>
       </c>
       <c r="F13">
-        <v>0.96599999999999997</v>
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2131,7 +2283,7 @@
         <v>0.4919</v>
       </c>
       <c r="F14">
-        <v>0.83699999999999997</v>
+        <v>0.82899999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2151,7 +2303,7 @@
         <v>0.82310000000000005</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2171,7 +2323,7 @@
         <v>1.3935999999999999</v>
       </c>
       <c r="F16">
-        <v>0.16700000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2191,7 +2343,7 @@
         <v>0.77459999999999996</v>
       </c>
       <c r="F17">
-        <v>0.62</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2232,10 +2384,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D14B79-60B2-424B-8EBD-01E76FB29C66}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2249,15 +2401,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -2293,7 +2445,7 @@
         <v>1.2881</v>
       </c>
       <c r="F3">
-        <v>0.216</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2336,7 +2488,7 @@
         <v>1.1917</v>
       </c>
       <c r="F5">
-        <v>0.216</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2356,10 +2508,10 @@
         <v>2.8946000000000001</v>
       </c>
       <c r="F6">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2379,7 +2531,7 @@
         <v>1.1976</v>
       </c>
       <c r="F7">
-        <v>0.223</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2399,7 +2551,7 @@
         <v>0.74890000000000001</v>
       </c>
       <c r="F8">
-        <v>0.83099999999999996</v>
+        <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2419,7 +2571,7 @@
         <v>0.9425</v>
       </c>
       <c r="F9">
-        <v>0.59799999999999998</v>
+        <v>0.59899999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2439,7 +2591,7 @@
         <v>0.64480000000000004</v>
       </c>
       <c r="F10">
-        <v>0.77</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2459,7 +2611,7 @@
         <v>0.87370000000000003</v>
       </c>
       <c r="F11">
-        <v>0.57499999999999996</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2479,7 +2631,7 @@
         <v>0.64529999999999998</v>
       </c>
       <c r="F12">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2499,7 +2651,7 @@
         <v>0.57609999999999995</v>
       </c>
       <c r="F13">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2519,7 +2671,7 @@
         <v>0.51129999999999998</v>
       </c>
       <c r="F14">
-        <v>0.95699999999999996</v>
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2539,7 +2691,7 @@
         <v>0.63739999999999997</v>
       </c>
       <c r="F15">
-        <v>0.86399999999999999</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2559,7 +2711,7 @@
         <v>0.96060000000000001</v>
       </c>
       <c r="F16">
-        <v>0.48399999999999999</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2579,7 +2731,7 @@
         <v>0.52869999999999995</v>
       </c>
       <c r="F17">
-        <v>0.997</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2609,9 +2761,6 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2641,15 +2790,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -2690,7 +2839,7 @@
       <c r="F3">
         <v>0.13289999999999999</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.7196456</v>
       </c>
     </row>
@@ -2713,7 +2862,7 @@
       <c r="F4">
         <v>13.290900000000001</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2736,7 +2885,7 @@
       <c r="F5">
         <v>1.657</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.2049166</v>
       </c>
     </row>
@@ -2759,7 +2908,7 @@
       <c r="F6">
         <v>0.58520000000000005</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.56725720000000002</v>
       </c>
     </row>
@@ -2782,7 +2931,7 @@
       <c r="F7">
         <v>1.4365000000000001</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.2510539</v>
       </c>
     </row>
@@ -2805,7 +2954,7 @@
       <c r="F8">
         <v>0.15359999999999999</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.9601421</v>
       </c>
     </row>
@@ -2828,7 +2977,7 @@
       <c r="F9">
         <v>0.1047</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.98014120000000005</v>
       </c>
     </row>
@@ -2860,15 +3009,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -2909,7 +3058,7 @@
       <c r="F3">
         <v>0.54279999999999995</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>0.47076180000000001</v>
       </c>
     </row>
@@ -2932,7 +3081,7 @@
       <c r="F4">
         <v>13.2524</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2955,7 +3104,7 @@
       <c r="F5">
         <v>2.1631</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>8.1769300000000003E-2</v>
       </c>
     </row>
@@ -2978,7 +3127,7 @@
       <c r="F6">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>0.92736399999999997</v>
       </c>
     </row>
@@ -3001,7 +3150,7 @@
       <c r="F7">
         <v>0.53539999999999999</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>0.710144</v>
       </c>
     </row>
@@ -3024,7 +3173,7 @@
       <c r="F8">
         <v>0.2974</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>0.96461390000000002</v>
       </c>
     </row>
@@ -3047,7 +3196,7 @@
       <c r="F9">
         <v>0.71350000000000002</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>0.67879959999999995</v>
       </c>
     </row>
@@ -3079,14 +3228,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -3127,7 +3276,7 @@
       <c r="F3">
         <v>3.73E-2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.84909999999999997</v>
       </c>
     </row>
@@ -3150,7 +3299,7 @@
       <c r="F4">
         <v>16.6069</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3173,7 +3322,7 @@
       <c r="F5">
         <v>0.74750000000000005</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.48070000000000002</v>
       </c>
     </row>
@@ -3196,7 +3345,7 @@
       <c r="F6">
         <v>0.4914</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.61970000000000003</v>
       </c>
     </row>
@@ -3219,7 +3368,7 @@
       <c r="F7">
         <v>1.7035</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.19639999999999999</v>
       </c>
     </row>
@@ -3242,7 +3391,7 @@
       <c r="F8">
         <v>0.41499999999999998</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.79669999999999996</v>
       </c>
     </row>
@@ -3265,7 +3414,7 @@
       <c r="F9">
         <v>0.45779999999999998</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.7661</v>
       </c>
     </row>
@@ -3300,15 +3449,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -3349,7 +3498,7 @@
       <c r="F3">
         <v>0.4597</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.50639999999999996</v>
       </c>
     </row>
@@ -3372,7 +3521,7 @@
       <c r="F4">
         <v>4.8585000000000003</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3395,7 +3544,7 @@
       <c r="F5">
         <v>0.41210000000000002</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.79935999999999996</v>
       </c>
     </row>
@@ -3418,7 +3567,7 @@
       <c r="F6">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.93723999999999996</v>
       </c>
     </row>
@@ -3441,7 +3590,7 @@
       <c r="F7">
         <v>0.51</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.72848999999999997</v>
       </c>
     </row>
@@ -3464,7 +3613,7 @@
       <c r="F8">
         <v>0.29880000000000001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.96411000000000002</v>
       </c>
     </row>
@@ -3487,7 +3636,7 @@
       <c r="F9">
         <v>0.63290000000000002</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.74756999999999996</v>
       </c>
     </row>
@@ -3519,15 +3668,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -3568,7 +3717,7 @@
       <c r="F3">
         <v>1.9437</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.18023700000000001</v>
       </c>
     </row>
@@ -3591,7 +3740,7 @@
       <c r="F4">
         <v>9.7959999999999994</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3614,7 +3763,7 @@
       <c r="F5">
         <v>0.53410000000000002</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.71108800000000005</v>
       </c>
     </row>
@@ -3637,7 +3786,7 @@
       <c r="F6">
         <v>0.9002</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.42402299999999998</v>
       </c>
     </row>
@@ -3660,7 +3809,7 @@
       <c r="F7">
         <v>0.56489999999999996</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.68885700000000005</v>
       </c>
     </row>
@@ -3683,7 +3832,7 @@
       <c r="F8">
         <v>0.40289999999999998</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.91538299999999995</v>
       </c>
     </row>
@@ -3706,7 +3855,7 @@
       <c r="F9">
         <v>0.81379999999999997</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.59279999999999999</v>
       </c>
     </row>
@@ -3738,15 +3887,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -3787,7 +3936,7 @@
       <c r="F3">
         <v>0.2387</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.631046</v>
       </c>
     </row>
@@ -3810,7 +3959,7 @@
       <c r="F4">
         <v>7.7647000000000004</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3833,7 +3982,7 @@
       <c r="F5">
         <v>0.31619999999999998</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.73094099999999995</v>
       </c>
     </row>
@@ -3856,7 +4005,7 @@
       <c r="F6">
         <v>0.4536</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.64237299999999997</v>
       </c>
     </row>
@@ -3879,7 +4028,7 @@
       <c r="F7">
         <v>2.2418</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.120904</v>
       </c>
     </row>
@@ -3902,7 +4051,7 @@
       <c r="F8">
         <v>0.2001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.93666499999999997</v>
       </c>
     </row>
@@ -3925,7 +4074,7 @@
       <c r="F9">
         <v>0.92610000000000003</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.45958500000000002</v>
       </c>
     </row>
@@ -3938,146 +4087,123 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C758DF-A5BC-E74A-9E7E-992ABCA3F5BC}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027DD859-5C17-154A-9683-559132B5DF4F}">
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G19"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.252</v>
-      </c>
-      <c r="D3">
-        <v>6.6699999999999997E-3</v>
-      </c>
-      <c r="E3">
-        <v>1.5586</v>
-      </c>
-      <c r="F3">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8.766</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="D4">
-        <v>0.23215</v>
+        <v>7.0699999999999999E-3</v>
       </c>
       <c r="E4">
-        <v>27.125399999999999</v>
+        <v>1.0104</v>
       </c>
       <c r="F4">
-        <v>1E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0.66700000000000004</v>
+        <v>5.4984999999999999</v>
       </c>
       <c r="D5">
-        <v>1.7670000000000002E-2</v>
+        <v>0.22029000000000001</v>
       </c>
       <c r="E5">
-        <v>1.0322</v>
+        <v>15.738799999999999</v>
       </c>
       <c r="F5">
-        <v>0.35399999999999998</v>
+        <v>1E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0.26400000000000001</v>
+        <v>0.78349999999999997</v>
       </c>
       <c r="D6">
-        <v>6.9899999999999997E-3</v>
+        <v>3.1390000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>1.6328</v>
+        <v>1.1213</v>
       </c>
       <c r="F6">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4088,19 +4214,16 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0.47199999999999998</v>
+        <v>0.37830000000000003</v>
       </c>
       <c r="D7">
-        <v>1.251E-2</v>
+        <v>1.516E-2</v>
       </c>
       <c r="E7">
-        <v>1.4615</v>
+        <v>1.0829</v>
       </c>
       <c r="F7">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4111,16 +4234,16 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.51300000000000001</v>
+        <v>0.54930000000000001</v>
       </c>
       <c r="D8">
-        <v>1.358E-2</v>
+        <v>2.2009999999999998E-2</v>
       </c>
       <c r="E8">
-        <v>0.79349999999999998</v>
+        <v>0.78620000000000001</v>
       </c>
       <c r="F8">
-        <v>0.83899999999999997</v>
+        <v>0.86799999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4131,341 +4254,837 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.92900000000000005</v>
+        <v>1.0165999999999999</v>
       </c>
       <c r="D9">
-        <v>2.461E-2</v>
+        <v>4.0730000000000002E-2</v>
       </c>
       <c r="E9">
-        <v>0.71899999999999997</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="F9">
-        <v>0.99</v>
+        <v>0.98899999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="D10">
+        <v>3.3509999999999998E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="F10">
         <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="D10">
-        <v>3.6900000000000001E-3</v>
-      </c>
-      <c r="E10">
-        <v>0.86180000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C11">
-        <v>0.245</v>
+        <v>15.7211</v>
       </c>
       <c r="D11">
-        <v>6.4799999999999996E-3</v>
-      </c>
-      <c r="E11">
-        <v>0.75660000000000005</v>
-      </c>
-      <c r="F11">
-        <v>0.81299999999999994</v>
+        <v>0.62985000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="C12">
-        <v>0.308</v>
+        <v>24.960100000000001</v>
       </c>
       <c r="D12">
-        <v>8.1499999999999993E-3</v>
-      </c>
-      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="D17">
+        <v>7.2100000000000003E-3</v>
+      </c>
+      <c r="E17">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="F17">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>5.8559999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.15501000000000001</v>
+      </c>
+      <c r="E18">
+        <v>10.5525</v>
+      </c>
+      <c r="F18">
+        <v>1E-3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="D19">
+        <v>3.5380000000000002E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.2040999999999999</v>
+      </c>
+      <c r="F19">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.51</v>
+      </c>
+      <c r="D20">
+        <v>1.3509999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="D21">
+        <v>2.7550000000000002E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="F21">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>2.052</v>
+      </c>
+      <c r="D22">
+        <v>5.432E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="D23">
+        <v>4.5990000000000003E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="F23">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>24.97</v>
+      </c>
+      <c r="D24">
+        <v>0.66103000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>119</v>
+      </c>
+      <c r="C25">
+        <v>37.774999999999999</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>3.8600000000000001E-3</v>
+      </c>
+      <c r="D30">
+        <v>5.8500000000000002E-3</v>
+      </c>
+      <c r="E30">
+        <v>1.1158999999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0.24664</v>
+      </c>
+      <c r="D31">
+        <v>0.37429000000000001</v>
+      </c>
+      <c r="E31">
+        <v>35.6753</v>
+      </c>
+      <c r="F31">
+        <v>1E-3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>2.8930000000000001E-2</v>
+      </c>
+      <c r="D32">
+        <v>4.3909999999999998E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.0924999999999998</v>
+      </c>
+      <c r="F32">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>4.3899999999999998E-3</v>
+      </c>
+      <c r="D33">
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="E33">
+        <v>0.63529999999999998</v>
+      </c>
+      <c r="F33">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>1.2030000000000001E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.8249999999999999E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="F34">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>3.2329999999999998E-2</v>
+      </c>
+      <c r="D35">
+        <v>4.9059999999999999E-2</v>
+      </c>
+      <c r="E35">
+        <v>1.169</v>
+      </c>
+      <c r="F35">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>1.968E-2</v>
+      </c>
+      <c r="D36">
+        <v>2.9860000000000001E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.71160000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>90</v>
+      </c>
+      <c r="C37">
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="D37">
+        <v>0.47211999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>119</v>
+      </c>
+      <c r="C38">
+        <v>0.65895999999999999</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="D43">
+        <v>6.5700000000000003E-3</v>
+      </c>
+      <c r="E43">
         <v>0.95199999999999996</v>
       </c>
-      <c r="F12">
-        <v>0.438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="F43">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2.1859999999999999</v>
+      </c>
+      <c r="D44">
+        <v>0.22475000000000001</v>
+      </c>
+      <c r="E44">
+        <v>16.283799999999999</v>
+      </c>
+      <c r="F44">
+        <v>1E-3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>0.33789999999999998</v>
+      </c>
+      <c r="D45">
+        <v>3.474E-2</v>
+      </c>
+      <c r="E45">
+        <v>1.2586999999999999</v>
+      </c>
+      <c r="F45">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="D46">
+        <v>7.6400000000000001E-3</v>
+      </c>
+      <c r="E46">
+        <v>0.55369999999999997</v>
+      </c>
+      <c r="F46">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="D47">
+        <v>2.1180000000000001E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.76729999999999998</v>
+      </c>
+      <c r="F47">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="D48">
+        <v>5.1709999999999999E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="F48">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B49">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="D13">
-        <v>2.0240000000000001E-2</v>
-      </c>
-      <c r="E13">
-        <v>0.59109999999999996</v>
-      </c>
-      <c r="F13">
+      <c r="C49">
+        <v>0.31440000000000001</v>
+      </c>
+      <c r="D49">
+        <v>3.2320000000000002E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.58540000000000003</v>
+      </c>
+      <c r="F49">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50">
+        <v>90</v>
+      </c>
+      <c r="C50">
+        <v>6.0408999999999997</v>
+      </c>
+      <c r="D50">
+        <v>0.62109000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>119</v>
+      </c>
+      <c r="C51">
+        <v>9.7263000000000002</v>
+      </c>
+      <c r="D51">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>0.222</v>
-      </c>
-      <c r="D14">
-        <v>5.8799999999999998E-3</v>
-      </c>
-      <c r="E14">
-        <v>0.68659999999999999</v>
-      </c>
-      <c r="F14">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="D15">
-        <v>5.2500000000000003E-3</v>
-      </c>
-      <c r="E15">
-        <v>0.6139</v>
-      </c>
-      <c r="F15">
-        <v>0.96599999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="D16">
-        <v>1.1169999999999999E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.65259999999999996</v>
-      </c>
-      <c r="F16">
-        <v>0.98899999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="D17">
-        <v>8.7799999999999996E-3</v>
-      </c>
-      <c r="E17">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18">
-        <v>144</v>
-      </c>
-      <c r="C18">
-        <v>23.268000000000001</v>
-      </c>
-      <c r="D18">
-        <v>0.61619999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>191</v>
-      </c>
-      <c r="C19">
-        <v>37.761000000000003</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:G41"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C77292F-CC68-764B-B431-35FC4AE79147}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB31227-8044-DA46-8DA6-FF4056E46077}">
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="D3">
-        <v>5.7200000000000003E-3</v>
-      </c>
-      <c r="E3">
-        <v>1.2513000000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8.782</v>
+        <v>0.1865</v>
       </c>
       <c r="D4">
-        <v>0.15015999999999999</v>
+        <v>1.491E-2</v>
       </c>
       <c r="E4">
-        <v>16.424800000000001</v>
+        <v>1.3301000000000001</v>
       </c>
       <c r="F4">
-        <v>1E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1.1839999999999999</v>
+        <v>3.5390999999999999</v>
       </c>
       <c r="D5">
-        <v>2.0240000000000001E-2</v>
+        <v>0.28290999999999999</v>
       </c>
       <c r="E5">
-        <v>1.1071</v>
+        <v>12.6213</v>
       </c>
       <c r="F5">
-        <v>0.187</v>
+        <v>1E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0.61499999999999999</v>
+        <v>0.14580000000000001</v>
       </c>
       <c r="D6">
-        <v>1.052E-2</v>
+        <v>1.166E-2</v>
       </c>
       <c r="E6">
-        <v>2.3007</v>
+        <v>0.52</v>
       </c>
       <c r="F6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4476,16 +5095,16 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0.55000000000000004</v>
+        <v>0.27239999999999998</v>
       </c>
       <c r="D7">
-        <v>9.4000000000000004E-3</v>
+        <v>2.1780000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>1.0286</v>
+        <v>0.97150000000000003</v>
       </c>
       <c r="F7">
-        <v>0.34899999999999998</v>
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4493,19 +5112,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1.014</v>
+        <v>0.18579999999999999</v>
       </c>
       <c r="D8">
-        <v>1.7340000000000001E-2</v>
+        <v>1.485E-2</v>
       </c>
       <c r="E8">
-        <v>0.94830000000000003</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="F8">
-        <v>0.60099999999999998</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4513,210 +5132,713 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>1.952</v>
+        <v>0.28910000000000002</v>
       </c>
       <c r="D9">
-        <v>3.3369999999999997E-2</v>
+        <v>2.3109999999999999E-2</v>
       </c>
       <c r="E9">
-        <v>0.91259999999999997</v>
+        <v>0.51559999999999995</v>
       </c>
       <c r="F9">
-        <v>0.83199999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0.24099999999999999</v>
+        <v>0.31990000000000002</v>
       </c>
       <c r="D10">
-        <v>4.13E-3</v>
+        <v>2.5569999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>0.90300000000000002</v>
+        <v>0.57040000000000002</v>
       </c>
       <c r="F10">
-        <v>0.56699999999999995</v>
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>0.57299999999999995</v>
+        <v>7.5709999999999997</v>
       </c>
       <c r="D11">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="E11">
-        <v>1.0723</v>
-      </c>
-      <c r="F11">
-        <v>0.28999999999999998</v>
+        <v>0.60521999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C12">
-        <v>0.59</v>
+        <v>12.509600000000001</v>
       </c>
       <c r="D12">
-        <v>1.009E-2</v>
-      </c>
-      <c r="E12">
-        <v>1.1039000000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.24959999999999999</v>
+      </c>
+      <c r="D17">
+        <v>1.2409999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="F17">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3.49</v>
+      </c>
+      <c r="D18">
+        <v>0.17344999999999999</v>
+      </c>
+      <c r="E18">
+        <v>6.8967000000000001</v>
+      </c>
+      <c r="F18">
+        <v>1E-3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.3337</v>
+      </c>
+      <c r="D19">
+        <v>1.6590000000000001E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="F19">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.4803</v>
+      </c>
+      <c r="D20">
+        <v>2.3869999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F20">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="D21">
+        <v>1.8769999999999998E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="F21">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="D22">
+        <v>3.9789999999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="F22">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0.72589999999999999</v>
+      </c>
+      <c r="D23">
+        <v>3.6080000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="F23">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>13.6632</v>
+      </c>
+      <c r="D24">
+        <v>0.67905000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>20.120899999999999</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>4.0949999999999997E-3</v>
+      </c>
+      <c r="D30">
+        <v>1.6840000000000001E-2</v>
+      </c>
+      <c r="E30">
+        <v>2.3517999999999999</v>
+      </c>
+      <c r="F30">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0.129859</v>
+      </c>
+      <c r="D31">
+        <v>0.53410999999999997</v>
+      </c>
+      <c r="E31">
+        <v>37.290999999999997</v>
+      </c>
+      <c r="F31">
+        <v>1E-3</v>
+      </c>
+      <c r="G31" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>1.6259999999999999</v>
-      </c>
-      <c r="D13">
-        <v>2.7810000000000001E-2</v>
-      </c>
-      <c r="E13">
-        <v>0.76029999999999998</v>
-      </c>
-      <c r="F13">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1.304E-3</v>
+      </c>
+      <c r="D32">
+        <v>5.3600000000000002E-3</v>
+      </c>
+      <c r="E32">
+        <v>0.37440000000000001</v>
+      </c>
+      <c r="F32">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>6.2989999999999999E-3</v>
+      </c>
+      <c r="D33">
+        <v>2.5909999999999999E-2</v>
+      </c>
+      <c r="E33">
+        <v>1.8088</v>
+      </c>
+      <c r="F33">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2.898E-3</v>
+      </c>
+      <c r="D34">
+        <v>1.192E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.83230000000000004</v>
+      </c>
+      <c r="F34">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>2.594E-3</v>
+      </c>
+      <c r="D35">
+        <v>1.0670000000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.3725</v>
+      </c>
+      <c r="F35">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>2.062E-3</v>
+      </c>
+      <c r="D36">
+        <v>8.4799999999999997E-3</v>
+      </c>
+      <c r="E36">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F36">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>9.4022999999999995E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.38671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>0.24313399999999999</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="D14">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="E14">
-        <v>0.7762</v>
-      </c>
-      <c r="F14">
-        <v>0.93799999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="D15">
-        <v>6.5399999999999998E-3</v>
-      </c>
-      <c r="E15">
-        <v>0.71579999999999999</v>
-      </c>
-      <c r="F15">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="D43">
+        <v>9.7300000000000008E-3</v>
+      </c>
+      <c r="E43">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="F43">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>1.3704000000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.22777</v>
+      </c>
+      <c r="E44">
+        <v>9.6152999999999995</v>
+      </c>
+      <c r="F44">
+        <v>1E-3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="D45">
+        <v>9.5300000000000003E-3</v>
+      </c>
+      <c r="E45">
+        <v>0.4022</v>
+      </c>
+      <c r="F45">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0.1744</v>
+      </c>
+      <c r="D46">
+        <v>2.8989999999999998E-2</v>
+      </c>
+      <c r="E46">
+        <v>1.2238</v>
+      </c>
+      <c r="F46">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="D47">
+        <v>1.6209999999999999E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.6845</v>
+      </c>
+      <c r="F47">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48">
         <v>4</v>
       </c>
-      <c r="C16">
-        <v>0.92</v>
-      </c>
-      <c r="D16">
-        <v>1.5730000000000001E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.86050000000000004</v>
-      </c>
-      <c r="F16">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
+      <c r="C48">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D48">
+        <v>4.6030000000000001E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="F48">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="D17">
-        <v>1.3769999999999999E-2</v>
-      </c>
-      <c r="E17">
-        <v>0.75309999999999999</v>
-      </c>
-      <c r="F17">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C49">
+        <v>0.1333</v>
+      </c>
+      <c r="D49">
+        <v>2.2159999999999999E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="F49">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>39</v>
       </c>
-      <c r="B18">
-        <v>144</v>
-      </c>
-      <c r="C18">
-        <v>38.497</v>
-      </c>
-      <c r="D18">
-        <v>0.65825999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B50">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>3.8481000000000001</v>
+      </c>
+      <c r="D50">
+        <v>0.63958000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>40</v>
       </c>
-      <c r="B19">
-        <v>191</v>
-      </c>
-      <c r="C19">
-        <v>58.481999999999999</v>
-      </c>
-      <c r="D19">
+      <c r="B51">
+        <v>71</v>
+      </c>
+      <c r="C51">
+        <v>6.0167000000000002</v>
+      </c>
+      <c r="D51">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>